--- a/data/data_sets.xlsx
+++ b/data/data_sets.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\gdrive\projects\masterthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFF3F0-2203-4B20-8AB5-D278A785B5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25EAAAC-6663-4A8D-A69B-794BEEE871A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="814" activeTab="4" xr2:uid="{E541E546-3513-455E-8D90-68968F86EB05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="814" xr2:uid="{E541E546-3513-455E-8D90-68968F86EB05}"/>
   </bookViews>
   <sheets>
-    <sheet name="tabela_5938_GDP" sheetId="3" r:id="rId1"/>
-    <sheet name="tabela_4092_workers" sheetId="4" r:id="rId2"/>
-    <sheet name="tabela_6371_hours" sheetId="2" r:id="rId3"/>
-    <sheet name="average" sheetId="6" r:id="rId4"/>
-    <sheet name="productivity" sheetId="1" r:id="rId5"/>
+    <sheet name="Haddad_2017" sheetId="7" r:id="rId1"/>
+    <sheet name="tabela_5938_GDP" sheetId="3" r:id="rId2"/>
+    <sheet name="tabela_4092_workers" sheetId="4" r:id="rId3"/>
+    <sheet name="tabela_6371_hours" sheetId="2" r:id="rId4"/>
+    <sheet name="average" sheetId="6" r:id="rId5"/>
+    <sheet name="productivity" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tabela_5938_GDP!$A$1:$F$561</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tabela_6371_hours!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tabela_5938_GDP!$A$1:$F$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">tabela_6371_hours!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="84">
   <si>
     <t>Distrito Federal</t>
   </si>
@@ -274,20 +275,33 @@
   <si>
     <t>average hours</t>
   </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>PIB x aSP</t>
+  </si>
+  <si>
+    <t>ω21 =</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +323,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +402,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,29 +439,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -743,13 +799,2767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAECB66-2D6E-4760-BA5C-71E0CB786F85}">
+  <dimension ref="A1:AE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="29" width="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.5703125" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>57.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>4.2</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>0.2</v>
+      </c>
+      <c r="N2">
+        <v>0.7</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2.4</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>2.7</v>
+      </c>
+      <c r="U2" s="31">
+        <v>12.9</v>
+      </c>
+      <c r="V2">
+        <v>1.8</v>
+      </c>
+      <c r="W2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X2">
+        <v>2.8</v>
+      </c>
+      <c r="Y2">
+        <v>0.3</v>
+      </c>
+      <c r="Z2">
+        <v>0.8</v>
+      </c>
+      <c r="AA2">
+        <v>0.9</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>6.3</v>
+      </c>
+      <c r="AD2" s="32">
+        <f>VLOOKUP(A2,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>47091336</v>
+      </c>
+      <c r="AE2" s="33">
+        <f t="shared" ref="AE2:AE20" si="0">IF(A2="SP",0,U2*AD2)</f>
+        <v>607478234.39999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>68.5</v>
+      </c>
+      <c r="D3">
+        <v>3.6</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>0.6</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>1.6</v>
+      </c>
+      <c r="S3">
+        <v>0.4</v>
+      </c>
+      <c r="T3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U3" s="31">
+        <v>7.9</v>
+      </c>
+      <c r="V3">
+        <v>1.3</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>0.2</v>
+      </c>
+      <c r="Z3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3">
+        <v>0.9</v>
+      </c>
+      <c r="AB3">
+        <v>1.7</v>
+      </c>
+      <c r="AC3">
+        <v>3.6</v>
+      </c>
+      <c r="AD3" s="32">
+        <f>VLOOKUP(A3,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>15630017</v>
+      </c>
+      <c r="AE3" s="33">
+        <f t="shared" si="0"/>
+        <v>123477134.30000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>37.9</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>2.6</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4">
+        <v>0.6</v>
+      </c>
+      <c r="N4">
+        <v>1.9</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <v>0.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.8</v>
+      </c>
+      <c r="R4">
+        <v>3.4</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>3.8</v>
+      </c>
+      <c r="U4" s="31">
+        <v>15.7</v>
+      </c>
+      <c r="V4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W4">
+        <v>1.8</v>
+      </c>
+      <c r="X4">
+        <v>2.9</v>
+      </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>1.9</v>
+      </c>
+      <c r="AB4">
+        <v>2.4</v>
+      </c>
+      <c r="AC4">
+        <v>10.7</v>
+      </c>
+      <c r="AD4" s="32">
+        <f>VLOOKUP(A4,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>108181091</v>
+      </c>
+      <c r="AE4" s="33">
+        <f t="shared" si="0"/>
+        <v>1698443128.6999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>8.5</v>
+      </c>
+      <c r="E5">
+        <v>76.3</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <v>0.7</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>1.2</v>
+      </c>
+      <c r="R5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S5">
+        <v>0.6</v>
+      </c>
+      <c r="T5">
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>0.2</v>
+      </c>
+      <c r="X5">
+        <v>0.4</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>2.4</v>
+      </c>
+      <c r="AA5">
+        <v>0.4</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>2.4</v>
+      </c>
+      <c r="AD5" s="32">
+        <f>VLOOKUP(A5,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>14292227</v>
+      </c>
+      <c r="AE5" s="33">
+        <f t="shared" si="0"/>
+        <v>18579895.100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>45.4</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>1.7</v>
+      </c>
+      <c r="S6">
+        <v>0.4</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V6">
+        <v>1.4</v>
+      </c>
+      <c r="W6">
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <v>1.9</v>
+      </c>
+      <c r="Y6">
+        <v>0.2</v>
+      </c>
+      <c r="Z6">
+        <v>0.3</v>
+      </c>
+      <c r="AA6">
+        <v>0.8</v>
+      </c>
+      <c r="AB6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>29.3</v>
+      </c>
+      <c r="AD6" s="32">
+        <f>VLOOKUP(A6,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>178376984</v>
+      </c>
+      <c r="AE6" s="33">
+        <f t="shared" si="0"/>
+        <v>1569717459.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>0.6</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.2</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.1</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1.3</v>
+      </c>
+      <c r="S7">
+        <v>0.3</v>
+      </c>
+      <c r="T7">
+        <v>1.6</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6.3</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0.6</v>
+      </c>
+      <c r="X7">
+        <v>1.7</v>
+      </c>
+      <c r="Y7">
+        <v>0.2</v>
+      </c>
+      <c r="Z7">
+        <v>0.2</v>
+      </c>
+      <c r="AA7">
+        <v>0.6</v>
+      </c>
+      <c r="AB7">
+        <v>0.9</v>
+      </c>
+      <c r="AC7">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="32">
+        <f>VLOOKUP(A7,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>17496661</v>
+      </c>
+      <c r="AE7" s="33">
+        <f t="shared" si="0"/>
+        <v>110228964.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.6</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>53.3</v>
+      </c>
+      <c r="I8">
+        <v>1.3</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R8">
+        <v>2.4</v>
+      </c>
+      <c r="S8">
+        <v>0.6</v>
+      </c>
+      <c r="T8">
+        <v>3.4</v>
+      </c>
+      <c r="U8" s="31">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>1.6</v>
+      </c>
+      <c r="W8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.3</v>
+      </c>
+      <c r="Z8">
+        <v>0.4</v>
+      </c>
+      <c r="AA8">
+        <v>1.5</v>
+      </c>
+      <c r="AB8">
+        <v>3.5</v>
+      </c>
+      <c r="AC8">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" s="32">
+        <f>VLOOKUP(A8,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>39355941</v>
+      </c>
+      <c r="AE8" s="33">
+        <f t="shared" si="0"/>
+        <v>472271292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>54.7</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <v>1.4</v>
+      </c>
+      <c r="L9">
+        <v>0.4</v>
+      </c>
+      <c r="M9">
+        <v>0.4</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0.2</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>1.5</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>2.4</v>
+      </c>
+      <c r="U9" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="V9">
+        <v>1.3</v>
+      </c>
+      <c r="W9">
+        <v>0.9</v>
+      </c>
+      <c r="X9">
+        <v>1.9</v>
+      </c>
+      <c r="Y9">
+        <v>0.2</v>
+      </c>
+      <c r="Z9">
+        <v>0.3</v>
+      </c>
+      <c r="AA9">
+        <v>0.9</v>
+      </c>
+      <c r="AB9">
+        <v>1.3</v>
+      </c>
+      <c r="AC9">
+        <v>14.2</v>
+      </c>
+      <c r="AD9" s="32">
+        <f>VLOOKUP(A9,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>97339938</v>
+      </c>
+      <c r="AE9" s="33">
+        <f t="shared" si="0"/>
+        <v>866325448.20000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.5</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="J10">
+        <v>63.6</v>
+      </c>
+      <c r="K10">
+        <v>1.9</v>
+      </c>
+      <c r="L10">
+        <v>0.6</v>
+      </c>
+      <c r="M10">
+        <v>0.4</v>
+      </c>
+      <c r="N10">
+        <v>1.2</v>
+      </c>
+      <c r="O10">
+        <v>0.3</v>
+      </c>
+      <c r="P10">
+        <v>0.3</v>
+      </c>
+      <c r="Q10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>0.6</v>
+      </c>
+      <c r="T10">
+        <v>2.7</v>
+      </c>
+      <c r="U10" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="V10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.8</v>
+      </c>
+      <c r="X10">
+        <v>1.7</v>
+      </c>
+      <c r="Y10">
+        <v>0.2</v>
+      </c>
+      <c r="Z10">
+        <v>0.3</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
+        <v>1.7</v>
+      </c>
+      <c r="AC10">
+        <v>5.4</v>
+      </c>
+      <c r="AD10" s="32">
+        <f>VLOOKUP(A10,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>52780785</v>
+      </c>
+      <c r="AE10" s="33">
+        <f t="shared" si="0"/>
+        <v>411690123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>1.4</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>1.4</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>63.9</v>
+      </c>
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>3.1</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>2.6</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>0.4</v>
+      </c>
+      <c r="T11">
+        <v>1.6</v>
+      </c>
+      <c r="U11" s="31">
+        <v>7.7</v>
+      </c>
+      <c r="V11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>1.3</v>
+      </c>
+      <c r="Y11">
+        <v>0.2</v>
+      </c>
+      <c r="Z11">
+        <v>0.3</v>
+      </c>
+      <c r="AA11">
+        <v>0.9</v>
+      </c>
+      <c r="AB11">
+        <v>1.6</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="32">
+        <f>VLOOKUP(A11,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>163575327</v>
+      </c>
+      <c r="AE11" s="33">
+        <f t="shared" si="0"/>
+        <v>1259530017.9000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+      <c r="J12">
+        <v>0.4</v>
+      </c>
+      <c r="K12">
+        <v>3.5</v>
+      </c>
+      <c r="L12">
+        <v>59.8</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>4.8</v>
+      </c>
+      <c r="O12">
+        <v>0.3</v>
+      </c>
+      <c r="P12">
+        <v>0.3</v>
+      </c>
+      <c r="Q12">
+        <v>2.4</v>
+      </c>
+      <c r="R12">
+        <v>1.4</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12">
+        <v>2.4</v>
+      </c>
+      <c r="U12" s="31">
+        <v>7.3</v>
+      </c>
+      <c r="V12">
+        <v>0.8</v>
+      </c>
+      <c r="W12">
+        <v>0.7</v>
+      </c>
+      <c r="X12">
+        <v>1.7</v>
+      </c>
+      <c r="Y12">
+        <v>0.1</v>
+      </c>
+      <c r="Z12">
+        <v>0.2</v>
+      </c>
+      <c r="AA12">
+        <v>0.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.2</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="32">
+        <f>VLOOKUP(A12,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>71336780</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" si="0"/>
+        <v>520758494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>0.6</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>1.6</v>
+      </c>
+      <c r="L13">
+        <v>2.5</v>
+      </c>
+      <c r="M13">
+        <v>62.1</v>
+      </c>
+      <c r="N13">
+        <v>5.6</v>
+      </c>
+      <c r="O13">
+        <v>0.9</v>
+      </c>
+      <c r="P13">
+        <v>0.4</v>
+      </c>
+      <c r="Q13">
+        <v>2.4</v>
+      </c>
+      <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>0.6</v>
+      </c>
+      <c r="T13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U13" s="31">
+        <v>7.3</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0.7</v>
+      </c>
+      <c r="X13">
+        <v>1.4</v>
+      </c>
+      <c r="Y13">
+        <v>0.2</v>
+      </c>
+      <c r="Z13">
+        <v>0.3</v>
+      </c>
+      <c r="AA13">
+        <v>0.7</v>
+      </c>
+      <c r="AB13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>3.9</v>
+      </c>
+      <c r="AD13" s="32">
+        <f>VLOOKUP(A13,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>67986074</v>
+      </c>
+      <c r="AE13" s="33">
+        <f t="shared" si="0"/>
+        <v>496298340.19999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <v>1.7</v>
+      </c>
+      <c r="L14">
+        <v>1.6</v>
+      </c>
+      <c r="M14">
+        <v>2.7</v>
+      </c>
+      <c r="N14">
+        <v>61.8</v>
+      </c>
+      <c r="O14">
+        <v>1.2</v>
+      </c>
+      <c r="P14">
+        <v>0.6</v>
+      </c>
+      <c r="Q14">
+        <v>3.8</v>
+      </c>
+      <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
+        <v>0.4</v>
+      </c>
+      <c r="T14">
+        <v>1.8</v>
+      </c>
+      <c r="U14" s="31">
+        <v>7.6</v>
+      </c>
+      <c r="V14">
+        <v>0.9</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>1.3</v>
+      </c>
+      <c r="Y14">
+        <v>0.2</v>
+      </c>
+      <c r="Z14">
+        <v>0.3</v>
+      </c>
+      <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
+        <v>1.7</v>
+      </c>
+      <c r="AC14">
+        <v>5.5</v>
+      </c>
+      <c r="AD14" s="32">
+        <f>VLOOKUP(A14,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>197853378</v>
+      </c>
+      <c r="AE14" s="33">
+        <f t="shared" si="0"/>
+        <v>1503685672.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
+        <v>1.2</v>
+      </c>
+      <c r="L15">
+        <v>0.7</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3.8</v>
+      </c>
+      <c r="O15">
+        <v>53.9</v>
+      </c>
+      <c r="P15">
+        <v>0.9</v>
+      </c>
+      <c r="Q15">
+        <v>4.2</v>
+      </c>
+      <c r="R15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>1.9</v>
+      </c>
+      <c r="U15" s="31">
+        <v>7.7</v>
+      </c>
+      <c r="V15">
+        <v>0.9</v>
+      </c>
+      <c r="W15">
+        <v>0.6</v>
+      </c>
+      <c r="X15">
+        <v>1.5</v>
+      </c>
+      <c r="Y15">
+        <v>0.2</v>
+      </c>
+      <c r="Z15">
+        <v>0.3</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1.6</v>
+      </c>
+      <c r="AC15">
+        <v>12.4</v>
+      </c>
+      <c r="AD15" s="32">
+        <f>VLOOKUP(A15,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>58963729</v>
+      </c>
+      <c r="AE15" s="33">
+        <f t="shared" si="0"/>
+        <v>454020713.30000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16">
+        <v>1.3</v>
+      </c>
+      <c r="L16">
+        <v>0.6</v>
+      </c>
+      <c r="M16">
+        <v>0.7</v>
+      </c>
+      <c r="N16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.9</v>
+      </c>
+      <c r="P16">
+        <v>55.6</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>2.4</v>
+      </c>
+      <c r="S16">
+        <v>0.8</v>
+      </c>
+      <c r="T16">
+        <v>2.9</v>
+      </c>
+      <c r="U16" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="V16">
+        <v>1.3</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2.1</v>
+      </c>
+      <c r="Y16">
+        <v>0.3</v>
+      </c>
+      <c r="Z16">
+        <v>0.4</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1.8</v>
+      </c>
+      <c r="AC16">
+        <v>6.6</v>
+      </c>
+      <c r="AD16" s="32">
+        <f>VLOOKUP(A16,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>44689483</v>
+      </c>
+      <c r="AE16" s="33">
+        <f t="shared" si="0"/>
+        <v>442425881.69999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>0.6</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.7</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>0.4</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>1.2</v>
+      </c>
+      <c r="L17">
+        <v>0.4</v>
+      </c>
+      <c r="M17">
+        <v>0.4</v>
+      </c>
+      <c r="N17">
+        <v>1.6</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17">
+        <v>0.8</v>
+      </c>
+      <c r="Q17">
+        <v>50.3</v>
+      </c>
+      <c r="R17">
+        <v>3.2</v>
+      </c>
+      <c r="S17">
+        <v>1.4</v>
+      </c>
+      <c r="T17">
+        <v>3.1</v>
+      </c>
+      <c r="U17" s="31">
+        <v>10.7</v>
+      </c>
+      <c r="V17">
+        <v>1.4</v>
+      </c>
+      <c r="W17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y17">
+        <v>0.4</v>
+      </c>
+      <c r="Z17">
+        <v>0.6</v>
+      </c>
+      <c r="AA17">
+        <v>1.5</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>13.5</v>
+      </c>
+      <c r="AD17" s="32">
+        <f>VLOOKUP(A17,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>293240504</v>
+      </c>
+      <c r="AE17" s="33">
+        <f t="shared" si="0"/>
+        <v>3137673392.7999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>0.4</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>0.3</v>
+      </c>
+      <c r="N18">
+        <v>0.9</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18">
+        <v>0.3</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+      <c r="R18">
+        <v>47.1</v>
+      </c>
+      <c r="S18">
+        <v>0.8</v>
+      </c>
+      <c r="T18">
+        <v>3.5</v>
+      </c>
+      <c r="U18" s="31">
+        <v>13.9</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>1.8</v>
+      </c>
+      <c r="Y18">
+        <v>0.4</v>
+      </c>
+      <c r="Z18">
+        <v>0.6</v>
+      </c>
+      <c r="AA18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB18">
+        <v>1.7</v>
+      </c>
+      <c r="AC18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AD18" s="32">
+        <f>VLOOKUP(A18,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>651872684</v>
+      </c>
+      <c r="AE18" s="33">
+        <f t="shared" si="0"/>
+        <v>9061030307.6000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="L19">
+        <v>0.2</v>
+      </c>
+      <c r="M19">
+        <v>0.3</v>
+      </c>
+      <c r="N19">
+        <v>0.8</v>
+      </c>
+      <c r="O19">
+        <v>0.2</v>
+      </c>
+      <c r="P19">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <v>2.5</v>
+      </c>
+      <c r="R19">
+        <v>3.7</v>
+      </c>
+      <c r="S19">
+        <v>35.5</v>
+      </c>
+      <c r="T19">
+        <v>6.2</v>
+      </c>
+      <c r="U19" s="31">
+        <v>10.9</v>
+      </c>
+      <c r="V19">
+        <v>1.6</v>
+      </c>
+      <c r="W19">
+        <v>1.2</v>
+      </c>
+      <c r="X19">
+        <v>1.8</v>
+      </c>
+      <c r="Y19">
+        <v>0.4</v>
+      </c>
+      <c r="Z19">
+        <v>0.4</v>
+      </c>
+      <c r="AA19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>1.3</v>
+      </c>
+      <c r="AC19">
+        <v>28.3</v>
+      </c>
+      <c r="AD19" s="32">
+        <f>VLOOKUP(A19,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>137345595</v>
+      </c>
+      <c r="AE19" s="33">
+        <f t="shared" si="0"/>
+        <v>1497066985.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <v>0.6</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>0.3</v>
+      </c>
+      <c r="N20">
+        <v>0.7</v>
+      </c>
+      <c r="O20">
+        <v>0.2</v>
+      </c>
+      <c r="P20">
+        <v>0.2</v>
+      </c>
+      <c r="Q20">
+        <v>1.6</v>
+      </c>
+      <c r="R20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S20">
+        <v>0.9</v>
+      </c>
+      <c r="T20">
+        <v>45.8</v>
+      </c>
+      <c r="U20" s="31">
+        <v>17</v>
+      </c>
+      <c r="V20">
+        <v>2.5</v>
+      </c>
+      <c r="W20">
+        <v>1.9</v>
+      </c>
+      <c r="X20">
+        <v>2.7</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <v>0.6</v>
+      </c>
+      <c r="AA20">
+        <v>1.4</v>
+      </c>
+      <c r="AB20">
+        <v>1.6</v>
+      </c>
+      <c r="AC20">
+        <v>14.7</v>
+      </c>
+      <c r="AD20" s="32">
+        <f>VLOOKUP(A20,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>779927917</v>
+      </c>
+      <c r="AE20" s="33">
+        <f t="shared" si="0"/>
+        <v>13258774589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+      <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21">
+        <v>0.9</v>
+      </c>
+      <c r="L21">
+        <v>0.4</v>
+      </c>
+      <c r="M21">
+        <v>0.4</v>
+      </c>
+      <c r="N21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.3</v>
+      </c>
+      <c r="P21">
+        <v>0.3</v>
+      </c>
+      <c r="Q21">
+        <v>2.1</v>
+      </c>
+      <c r="R21">
+        <v>5.3</v>
+      </c>
+      <c r="S21">
+        <v>0.9</v>
+      </c>
+      <c r="T21">
+        <v>5.9</v>
+      </c>
+      <c r="U21" s="31">
+        <v>52.8</v>
+      </c>
+      <c r="V21">
+        <v>4.7</v>
+      </c>
+      <c r="W21">
+        <v>2.4</v>
+      </c>
+      <c r="X21">
+        <v>3.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.9</v>
+      </c>
+      <c r="Z21">
+        <v>0.8</v>
+      </c>
+      <c r="AA21">
+        <v>1.3</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>11.4</v>
+      </c>
+      <c r="AD21" s="32">
+        <f>VLOOKUP(A21,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>2348338000</v>
+      </c>
+      <c r="AE21" s="33">
+        <f>IF(A21="SP",0,U21*AD21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0.6</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="F22">
+        <v>0.6</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <v>0.6</v>
+      </c>
+      <c r="L22">
+        <v>0.2</v>
+      </c>
+      <c r="M22">
+        <v>0.2</v>
+      </c>
+      <c r="N22">
+        <v>0.7</v>
+      </c>
+      <c r="O22">
+        <v>0.2</v>
+      </c>
+      <c r="P22">
+        <v>0.2</v>
+      </c>
+      <c r="Q22">
+        <v>1.3</v>
+      </c>
+      <c r="R22">
+        <v>2.8</v>
+      </c>
+      <c r="S22">
+        <v>0.7</v>
+      </c>
+      <c r="T22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U22" s="31">
+        <v>22.7</v>
+      </c>
+      <c r="V22">
+        <v>41.9</v>
+      </c>
+      <c r="W22">
+        <v>3.4</v>
+      </c>
+      <c r="X22">
+        <v>2.8</v>
+      </c>
+      <c r="Y22">
+        <v>0.6</v>
+      </c>
+      <c r="Z22">
+        <v>0.5</v>
+      </c>
+      <c r="AA22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>1.4</v>
+      </c>
+      <c r="AC22">
+        <v>12.2</v>
+      </c>
+      <c r="AD22" s="32">
+        <f>VLOOKUP(A22,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>466377036</v>
+      </c>
+      <c r="AE22" s="33">
+        <f t="shared" ref="AE22:AE28" si="1">IF(A22="SP",0,U22*AD22)</f>
+        <v>10586758717.199999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
+      </c>
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+      <c r="K23">
+        <v>0.4</v>
+      </c>
+      <c r="L23">
+        <v>0.2</v>
+      </c>
+      <c r="M23">
+        <v>0.2</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <v>0.2</v>
+      </c>
+      <c r="P23">
+        <v>0.2</v>
+      </c>
+      <c r="Q23">
+        <v>1.3</v>
+      </c>
+      <c r="R23">
+        <v>2.8</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>2.9</v>
+      </c>
+      <c r="U23" s="31">
+        <v>17.3</v>
+      </c>
+      <c r="V23">
+        <v>4.3</v>
+      </c>
+      <c r="W23">
+        <v>47.6</v>
+      </c>
+      <c r="X23">
+        <v>5.2</v>
+      </c>
+      <c r="Y23">
+        <v>0.4</v>
+      </c>
+      <c r="Z23">
+        <v>0.5</v>
+      </c>
+      <c r="AA23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB23">
+        <v>1.3</v>
+      </c>
+      <c r="AC23">
+        <v>10.9</v>
+      </c>
+      <c r="AD23" s="32">
+        <f>VLOOKUP(A23,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>323263857</v>
+      </c>
+      <c r="AE23" s="33">
+        <f t="shared" si="1"/>
+        <v>5592464726.1000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>0.3</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24">
+        <v>0.8</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>0.6</v>
+      </c>
+      <c r="J24">
+        <v>0.3</v>
+      </c>
+      <c r="K24">
+        <v>0.7</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+      <c r="M24">
+        <v>0.3</v>
+      </c>
+      <c r="N24">
+        <v>0.8</v>
+      </c>
+      <c r="O24">
+        <v>0.2</v>
+      </c>
+      <c r="P24">
+        <v>0.2</v>
+      </c>
+      <c r="Q24">
+        <v>1.6</v>
+      </c>
+      <c r="R24">
+        <v>2.8</v>
+      </c>
+      <c r="S24">
+        <v>0.7</v>
+      </c>
+      <c r="T24">
+        <v>3.6</v>
+      </c>
+      <c r="U24" s="31">
+        <v>14.4</v>
+      </c>
+      <c r="V24">
+        <v>2.8</v>
+      </c>
+      <c r="W24">
+        <v>2.6</v>
+      </c>
+      <c r="X24">
+        <v>49.7</v>
+      </c>
+      <c r="Y24">
+        <v>0.5</v>
+      </c>
+      <c r="Z24">
+        <v>0.6</v>
+      </c>
+      <c r="AA24">
+        <v>1.2</v>
+      </c>
+      <c r="AB24">
+        <v>1.5</v>
+      </c>
+      <c r="AC24">
+        <v>12.4</v>
+      </c>
+      <c r="AD24" s="32">
+        <f>VLOOKUP(A24,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>482464177</v>
+      </c>
+      <c r="AE24" s="33">
+        <f t="shared" si="1"/>
+        <v>6947484148.8000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0.9</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>0.4</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <v>0.2</v>
+      </c>
+      <c r="M25">
+        <v>0.2</v>
+      </c>
+      <c r="N25">
+        <v>0.7</v>
+      </c>
+      <c r="O25">
+        <v>0.2</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>1.3</v>
+      </c>
+      <c r="R25">
+        <v>2.6</v>
+      </c>
+      <c r="S25">
+        <v>0.6</v>
+      </c>
+      <c r="T25">
+        <v>3.7</v>
+      </c>
+      <c r="U25" s="31">
+        <v>19.2</v>
+      </c>
+      <c r="V25">
+        <v>2.5</v>
+      </c>
+      <c r="W25">
+        <v>1.7</v>
+      </c>
+      <c r="X25">
+        <v>2.7</v>
+      </c>
+      <c r="Y25">
+        <v>43.2</v>
+      </c>
+      <c r="Z25">
+        <v>0.6</v>
+      </c>
+      <c r="AA25">
+        <v>1.4</v>
+      </c>
+      <c r="AB25">
+        <v>1.5</v>
+      </c>
+      <c r="AC25">
+        <v>14</v>
+      </c>
+      <c r="AD25" s="32">
+        <f>VLOOKUP(A25,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>106943246</v>
+      </c>
+      <c r="AE25" s="33">
+        <f t="shared" si="1"/>
+        <v>2053310323.1999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.7</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>1.6</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <v>0.9</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+      <c r="M26">
+        <v>0.3</v>
+      </c>
+      <c r="N26">
+        <v>0.9</v>
+      </c>
+      <c r="O26">
+        <v>0.2</v>
+      </c>
+      <c r="P26">
+        <v>0.2</v>
+      </c>
+      <c r="Q26">
+        <v>1.9</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>0.6</v>
+      </c>
+      <c r="T26">
+        <v>3.9</v>
+      </c>
+      <c r="U26" s="31">
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <v>1.9</v>
+      </c>
+      <c r="W26">
+        <v>1.5</v>
+      </c>
+      <c r="X26">
+        <v>2.7</v>
+      </c>
+      <c r="Y26">
+        <v>0.5</v>
+      </c>
+      <c r="Z26">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AA26">
+        <v>1.5</v>
+      </c>
+      <c r="AB26">
+        <v>1.7</v>
+      </c>
+      <c r="AC26">
+        <v>24.3</v>
+      </c>
+      <c r="AD26" s="32">
+        <f>VLOOKUP(A26,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>142122028</v>
+      </c>
+      <c r="AE26" s="33">
+        <f t="shared" si="1"/>
+        <v>1847586364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0.3</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.3</v>
+      </c>
+      <c r="I27">
+        <v>0.6</v>
+      </c>
+      <c r="J27">
+        <v>0.2</v>
+      </c>
+      <c r="K27">
+        <v>0.8</v>
+      </c>
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+      <c r="M27">
+        <v>0.3</v>
+      </c>
+      <c r="N27">
+        <v>0.9</v>
+      </c>
+      <c r="O27">
+        <v>0.2</v>
+      </c>
+      <c r="P27">
+        <v>0.2</v>
+      </c>
+      <c r="Q27">
+        <v>1.3</v>
+      </c>
+      <c r="R27">
+        <v>4.5</v>
+      </c>
+      <c r="S27">
+        <v>0.8</v>
+      </c>
+      <c r="T27">
+        <v>3.7</v>
+      </c>
+      <c r="U27" s="31">
+        <v>16.2</v>
+      </c>
+      <c r="V27">
+        <v>1.4</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>2.1</v>
+      </c>
+      <c r="Y27">
+        <v>0.4</v>
+      </c>
+      <c r="Z27">
+        <v>0.6</v>
+      </c>
+      <c r="AA27">
+        <v>46.3</v>
+      </c>
+      <c r="AB27">
+        <v>4.7</v>
+      </c>
+      <c r="AC27">
+        <v>10.1</v>
+      </c>
+      <c r="AD27" s="32">
+        <f>VLOOKUP(A27,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>208672492</v>
+      </c>
+      <c r="AE27" s="33">
+        <f t="shared" si="1"/>
+        <v>3380494370.3999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>0.3</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>0.8</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.9</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.3</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0.3</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+      <c r="M28">
+        <v>0.3</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0.2</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>0.8</v>
+      </c>
+      <c r="T28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U28" s="31">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>1.2</v>
+      </c>
+      <c r="W28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X28">
+        <v>2.4</v>
+      </c>
+      <c r="Y28">
+        <v>0.3</v>
+      </c>
+      <c r="Z28">
+        <v>0.6</v>
+      </c>
+      <c r="AA28">
+        <v>3.4</v>
+      </c>
+      <c r="AB28">
+        <v>66.2</v>
+      </c>
+      <c r="AC28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD28" s="32">
+        <f>VLOOKUP(A28,tabela_5938_GDP!E:F,2,FALSE)</f>
+        <v>273613711</v>
+      </c>
+      <c r="AE28" s="33">
+        <f t="shared" si="1"/>
+        <v>2462523399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD30" s="33">
+        <f>SUM(AD2:AD28)</f>
+        <v>7389130998</v>
+      </c>
+      <c r="AE30" s="33">
+        <f>SUM(AE2:AE28)</f>
+        <v>70380098122.699997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD31" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE31" s="35">
+        <f>0.01*AE30/AD30</f>
+        <v>9.5248139655055006E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88C639A-DE90-4667-A7EE-C3193E89123E}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B505"/>
+      <selection pane="bottomLeft" activeCell="F495" sqref="F495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7200,7 +10010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76860A35-9052-4048-B026-EA155A1BB9F7}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -7856,7 +10666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3A334-C4DC-4AB0-89FA-EE7B7C6EC7C5}">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -8457,7 +11267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8C45-134A-42CF-99E8-B03C1330162E}">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -8473,19 +11283,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8493,73 +11303,73 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="21" t="str">
+      <c r="F2" s="18" t="str">
         <f>B2</f>
         <v>1º trimestre 2019</v>
       </c>
-      <c r="G2" s="18" t="str">
+      <c r="G2" s="17" t="str">
         <f t="shared" ref="G2:I2" si="0">C2</f>
         <v>2º trimestre 2019</v>
       </c>
-      <c r="H2" s="18" t="str">
+      <c r="H2" s="17" t="str">
         <f t="shared" si="0"/>
         <v>3º trimestre 2019</v>
       </c>
-      <c r="I2" s="22" t="str">
+      <c r="I2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>4º trimestre 2019</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>22322</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>22696</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>22918</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>23014</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.1</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.4</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="19">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="20">
         <f>SUMPRODUCT(B3:E3,F3:I3)</f>
         <v>3545301.2</v>
       </c>
@@ -8568,39 +11378,39 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>7604</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>7589</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>7685</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>7761</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>39.1</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.6</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="20">
         <f t="shared" ref="J4:J30" si="1">SUMPRODUCT(B4:E4,F4:I4)</f>
         <v>1211037.4000000001</v>
       </c>
@@ -8609,39 +11419,39 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>9926</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>10293</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>10334</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>10363</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.6</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.1</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.9</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.4</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <f t="shared" si="1"/>
         <v>1514470.7</v>
       </c>
@@ -8650,39 +11460,39 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>5668</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>5714</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>5657</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>5819</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.4</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.5</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <f t="shared" si="1"/>
         <v>893767.7</v>
       </c>
@@ -8691,39 +11501,39 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>5548</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>5576</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>5613</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>5671</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.9</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <f t="shared" si="1"/>
         <v>867264.6</v>
       </c>
@@ -8732,39 +11542,39 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3635</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3677</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3695</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3767</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>39.5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>40.5</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <f t="shared" si="1"/>
         <v>592855.5</v>
       </c>
@@ -8773,39 +11583,39 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>5765</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>5857</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>5862</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>5867</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>34.9</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.5</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>832538.4</v>
       </c>
@@ -8814,39 +11624,39 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1438</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1462</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1472</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1463</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.299999999999997</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <f t="shared" si="1"/>
         <v>222053.6</v>
       </c>
@@ -8855,39 +11665,39 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3344</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3366</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3426</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3431</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>39.1</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <f t="shared" si="1"/>
         <v>531835.10000000009</v>
       </c>
@@ -8896,39 +11706,39 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3573</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3553</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3541</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3646</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.4</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>538198.80000000005</v>
       </c>
@@ -8937,39 +11747,39 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3392</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3403</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3471</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3521</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>497051.3</v>
       </c>
@@ -8978,39 +11788,39 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3646</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3705</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3706</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3790</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>542370</v>
       </c>
@@ -9019,39 +11829,39 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1656</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1699</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1707</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1703</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.9</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.9</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.5</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="20">
         <f t="shared" si="1"/>
         <v>265545.90000000002</v>
       </c>
@@ -9060,39 +11870,39 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1888</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1960</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1943</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1948</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.5</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="20">
         <f t="shared" si="1"/>
         <v>299144.40000000002</v>
       </c>
@@ -9101,39 +11911,39 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1548</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1622</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1642</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1654</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.5</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.5</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>232169</v>
       </c>
@@ -9142,39 +11952,39 @@
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1295</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1338</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1329</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1336</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.6</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>197763.8</v>
       </c>
@@ -9183,39 +11993,39 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>2163</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>2236</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>2274</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>2330</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>34.9</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.5</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>35.4</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.4</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>317848.3</v>
       </c>
@@ -9224,39 +12034,39 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1308</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1346</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1333</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1335</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.9</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.5</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>191595.3</v>
       </c>
@@ -9265,39 +12075,39 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="18">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1494</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1492</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1506</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1489</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="18">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>219648.09999999998</v>
       </c>
@@ -9306,39 +12116,39 @@
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1008</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1060</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1042</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1028</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="18">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.6</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>153310.79999999999</v>
       </c>
@@ -9347,39 +12157,39 @@
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="18">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1264</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1276</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1340</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1303</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="18">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>31.2</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>32.1</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>33.5</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>32.5</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>167633.9</v>
       </c>
@@ -9388,39 +12198,39 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>792</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>809</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>812</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>810</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.1</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.9</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>121274.9</v>
       </c>
@@ -9429,39 +12239,39 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>898</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>932</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>934</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>957</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="18">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.1</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>131389.6</v>
       </c>
@@ -9470,39 +12280,39 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="18">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>631</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>644</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>650</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>656</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="18">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.5</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.5</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>96136.5</v>
       </c>
@@ -9511,39 +12321,39 @@
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="18">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>305</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>333</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>325</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>331</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="18">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.9</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.1</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.1</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>46468.299999999996</v>
       </c>
@@ -9552,39 +12362,39 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>292</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>309</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>309</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>304</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="18">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="19">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="20">
         <f t="shared" si="1"/>
         <v>44426.6</v>
       </c>
@@ -9593,39 +12403,39 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="18">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>218</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>211</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>212</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>217</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="18">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.9</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="19">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.4</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>32173.1</v>
       </c>
@@ -9634,39 +12444,39 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="18">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>92621</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>94159</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>94737</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>95515</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="18">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="17">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>38.299999999999997</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="19">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>14300643.300000001</v>
       </c>
@@ -9675,27 +12485,27 @@
       <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="18">
         <f>B30-B3</f>
         <v>70299</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <f t="shared" ref="C31:E31" si="2">C30-C3</f>
         <v>71463</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <f t="shared" si="2"/>
         <v>71819</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="19">
         <f t="shared" si="2"/>
         <v>72501</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23">
+      <c r="F31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
         <f t="shared" ref="J31" si="3">J30-J3</f>
         <v>10755342.100000001</v>
       </c>
@@ -9710,11 +12520,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE356E4D-9750-4B2A-9204-FA86589ECEE8}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9723,8 +12533,8 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="84.140625" style="15" customWidth="1"/>
   </cols>
@@ -9761,15 +12571,15 @@
         <v>2348338000</v>
       </c>
       <c r="C2" s="11">
-        <f>100*B2/$B$29</f>
+        <f t="shared" ref="C2:C30" si="0">100*B2/$B$29</f>
         <v>31.780976680478396</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <f>VLOOKUP(A2,average!A:J,10,FALSE)</f>
         <v>3545301.2</v>
       </c>
-      <c r="E2" s="27">
-        <f>B2/D2</f>
+      <c r="E2" s="23">
+        <f t="shared" ref="E2:E30" si="1">B2/D2</f>
         <v>662.38039239092006</v>
       </c>
       <c r="F2" s="16">
@@ -9790,19 +12600,19 @@
         <v>779927917</v>
       </c>
       <c r="C3" s="11">
-        <f>100*B3/$B$29</f>
+        <f t="shared" si="0"/>
         <v>10.555069560953784</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <f>VLOOKUP(A3,average!A:J,10,FALSE)</f>
         <v>1211037.4000000001</v>
       </c>
-      <c r="E3" s="26">
-        <f>B3/D3</f>
+      <c r="E3" s="22">
+        <f t="shared" si="1"/>
         <v>644.01637554711351</v>
       </c>
       <c r="G3" s="15" t="str">
-        <f t="shared" ref="G3:G30" si="0">CONCATENATE(A3," &amp; ",TEXT(B3,"#.###.###")," &amp; ",TEXT(C3,"0,0")," &amp; ",TEXT(D3,"#.###.###")," &amp; ",TEXT(E3,"#.###")," \\ \hline")</f>
+        <f t="shared" ref="G3:G30" si="2">CONCATENATE(A3," &amp; ",TEXT(B3,"#.###.###")," &amp; ",TEXT(C3,"0,0")," &amp; ",TEXT(D3,"#.###.###")," &amp; ",TEXT(E3,"#.###")," \\ \hline")</f>
         <v>Rio de Janeiro &amp; 779.927.917 &amp; 10,6 &amp; 1.211.037 &amp; 644 \\ \hline</v>
       </c>
     </row>
@@ -9815,20 +12625,20 @@
         <v>651872684</v>
       </c>
       <c r="C4" s="11">
-        <f>100*B4/$B$29</f>
+        <f t="shared" si="0"/>
         <v>8.8220480053743806</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <f>VLOOKUP(A4,average!A:J,10,FALSE)</f>
         <v>1514470.7</v>
       </c>
-      <c r="E4" s="26">
-        <f>B4/D4</f>
+      <c r="E4" s="22">
+        <f t="shared" si="1"/>
         <v>430.42937971662315</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Minas Gerais &amp; 651.872.684 &amp; 8,8 &amp; 1.514.471 &amp; 430 \\ \hline</v>
       </c>
     </row>
@@ -9841,19 +12651,19 @@
         <v>482464177</v>
       </c>
       <c r="C5" s="11">
-        <f>100*B5/$B$29</f>
+        <f t="shared" si="0"/>
         <v>6.529376417876473</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <f>VLOOKUP(A5,average!A:J,10,FALSE)</f>
         <v>893767.7</v>
       </c>
-      <c r="E5" s="26">
-        <f>B5/D5</f>
+      <c r="E5" s="22">
+        <f t="shared" si="1"/>
         <v>539.80936769140351</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Rio Grande do Sul &amp; 482.464.177 &amp; 6,5 &amp; 893.768 &amp; 540 \\ \hline</v>
       </c>
     </row>
@@ -9866,19 +12676,19 @@
         <v>466377036</v>
       </c>
       <c r="C6" s="11">
-        <f>100*B6/$B$29</f>
+        <f t="shared" si="0"/>
         <v>6.3116628464159046</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <f>VLOOKUP(A6,average!A:J,10,FALSE)</f>
         <v>867264.6</v>
       </c>
-      <c r="E6" s="26">
-        <f>B6/D6</f>
+      <c r="E6" s="22">
+        <f t="shared" si="1"/>
         <v>537.75633872292269</v>
       </c>
       <c r="G6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Paraná &amp; 466.377.036 &amp; 6,3 &amp; 867.265 &amp; 538 \\ \hline</v>
       </c>
     </row>
@@ -9891,19 +12701,19 @@
         <v>323263857</v>
       </c>
       <c r="C7" s="11">
-        <f>100*B7/$B$29</f>
+        <f t="shared" si="0"/>
         <v>4.3748562178691923</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <f>VLOOKUP(A7,average!A:J,10,FALSE)</f>
         <v>592855.5</v>
       </c>
-      <c r="E7" s="26">
-        <f>B7/D7</f>
+      <c r="E7" s="22">
+        <f t="shared" si="1"/>
         <v>545.26584808608504</v>
       </c>
       <c r="G7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Santa Catarina &amp; 323.263.857 &amp; 4,4 &amp; 592.856 &amp; 545 \\ \hline</v>
       </c>
     </row>
@@ -9916,19 +12726,19 @@
         <v>293240504</v>
       </c>
       <c r="C8" s="11">
-        <f>100*B8/$B$29</f>
+        <f t="shared" si="0"/>
         <v>3.9685384384171831</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <f>VLOOKUP(A8,average!A:J,10,FALSE)</f>
         <v>832538.4</v>
       </c>
-      <c r="E8" s="26">
-        <f>B8/D8</f>
+      <c r="E8" s="22">
+        <f t="shared" si="1"/>
         <v>352.22459888937254</v>
       </c>
       <c r="G8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Bahia &amp; 293.240.504 &amp; 4,0 &amp; 832.538 &amp; 352 \\ \hline</v>
       </c>
     </row>
@@ -9941,19 +12751,19 @@
         <v>273613711</v>
       </c>
       <c r="C9" s="11">
-        <f>100*B9/$B$29</f>
+        <f t="shared" si="0"/>
         <v>3.7029213719448202</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <f>VLOOKUP(A9,average!A:J,10,FALSE)</f>
         <v>222053.6</v>
       </c>
-      <c r="E9" s="26">
-        <f>B9/D9</f>
+      <c r="E9" s="22">
+        <f t="shared" si="1"/>
         <v>1232.1966903486366</v>
       </c>
       <c r="G9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Distrito Federal &amp; 273.613.711 &amp; 3,7 &amp; 222.054 &amp; 1.232 \\ \hline</v>
       </c>
     </row>
@@ -9966,19 +12776,19 @@
         <v>208672492</v>
       </c>
       <c r="C10" s="11">
-        <f>100*B10/$B$29</f>
+        <f t="shared" si="0"/>
         <v>2.824046454177088</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <f>VLOOKUP(A10,average!A:J,10,FALSE)</f>
         <v>531835.10000000009</v>
       </c>
-      <c r="E10" s="26">
-        <f>B10/D10</f>
+      <c r="E10" s="22">
+        <f t="shared" si="1"/>
         <v>392.36314413997866</v>
       </c>
       <c r="G10" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Goiás &amp; 208.672.492 &amp; 2,8 &amp; 531.835 &amp; 392 \\ \hline</v>
       </c>
     </row>
@@ -9991,19 +12801,19 @@
         <v>197853378</v>
       </c>
       <c r="C11" s="11">
-        <f>100*B11/$B$29</f>
+        <f t="shared" si="0"/>
         <v>2.6776271526381112</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <f>VLOOKUP(A11,average!A:J,10,FALSE)</f>
         <v>538198.80000000005</v>
       </c>
-      <c r="E11" s="26">
-        <f>B11/D11</f>
+      <c r="E11" s="22">
+        <f t="shared" si="1"/>
         <v>367.62136593392626</v>
       </c>
       <c r="G11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Pernambuco &amp; 197.853.378 &amp; 2,7 &amp; 538.199 &amp; 368 \\ \hline</v>
       </c>
     </row>
@@ -10016,19 +12826,19 @@
         <v>178376984</v>
       </c>
       <c r="C12" s="11">
-        <f>100*B12/$B$29</f>
+        <f t="shared" si="0"/>
         <v>2.4140454946596561</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <f>VLOOKUP(A12,average!A:J,10,FALSE)</f>
         <v>497051.3</v>
       </c>
-      <c r="E12" s="26">
-        <f>B12/D12</f>
+      <c r="E12" s="22">
+        <f t="shared" si="1"/>
         <v>358.87037012075012</v>
       </c>
       <c r="G12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Pará &amp; 178.376.984 &amp; 2,4 &amp; 497.051 &amp; 359 \\ \hline</v>
       </c>
     </row>
@@ -10041,19 +12851,19 @@
         <v>163575327</v>
       </c>
       <c r="C13" s="11">
-        <f>100*B13/$B$29</f>
+        <f t="shared" si="0"/>
         <v>2.2137288809739601</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <f>VLOOKUP(A13,average!A:J,10,FALSE)</f>
         <v>542370</v>
       </c>
-      <c r="E13" s="26">
-        <f>B13/D13</f>
+      <c r="E13" s="22">
+        <f t="shared" si="1"/>
         <v>301.59361137231042</v>
       </c>
       <c r="G13" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ceará &amp; 163.575.327 &amp; 2,2 &amp; 542.370 &amp; 302 \\ \hline</v>
       </c>
     </row>
@@ -10066,19 +12876,19 @@
         <v>142122028</v>
       </c>
       <c r="C14" s="11">
-        <f>100*B14/$B$29</f>
+        <f t="shared" si="0"/>
         <v>1.9233929943859434</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <f>VLOOKUP(A14,average!A:J,10,FALSE)</f>
         <v>265545.90000000002</v>
       </c>
-      <c r="E14" s="26">
-        <f>B14/D14</f>
+      <c r="E14" s="22">
+        <f t="shared" si="1"/>
         <v>535.20701317549992</v>
       </c>
       <c r="G14" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Mato Grosso &amp; 142.122.028 &amp; 1,9 &amp; 265.546 &amp; 535 \\ \hline</v>
       </c>
     </row>
@@ -10091,19 +12901,19 @@
         <v>137345595</v>
       </c>
       <c r="C15" s="11">
-        <f>100*B15/$B$29</f>
+        <f t="shared" si="0"/>
         <v>1.8587516583479167</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="22">
         <f>VLOOKUP(A15,average!A:J,10,FALSE)</f>
         <v>299144.40000000002</v>
       </c>
-      <c r="E15" s="26">
-        <f>B15/D15</f>
+      <c r="E15" s="22">
+        <f t="shared" si="1"/>
         <v>459.12808329355317</v>
       </c>
       <c r="G15" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Espírito Santo &amp; 137.345.595 &amp; 1,9 &amp; 299.144 &amp; 459 \\ \hline</v>
       </c>
     </row>
@@ -10116,19 +12926,19 @@
         <v>108181091</v>
       </c>
       <c r="C16" s="11">
-        <f>100*B16/$B$29</f>
+        <f t="shared" si="0"/>
         <v>1.464057018342211</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <f>VLOOKUP(A16,average!A:J,10,FALSE)</f>
         <v>232169</v>
       </c>
-      <c r="E16" s="26">
-        <f>B16/D16</f>
+      <c r="E16" s="22">
+        <f t="shared" si="1"/>
         <v>465.95837945634429</v>
       </c>
       <c r="G16" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Amazonas &amp; 108.181.091 &amp; 1,5 &amp; 232.169 &amp; 466 \\ \hline</v>
       </c>
     </row>
@@ -10141,19 +12951,19 @@
         <v>106943246</v>
       </c>
       <c r="C17" s="11">
-        <f>100*B17/$B$29</f>
+        <f t="shared" si="0"/>
         <v>1.4473047777878074</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <f>VLOOKUP(A17,average!A:J,10,FALSE)</f>
         <v>197763.8</v>
       </c>
-      <c r="E17" s="26">
-        <f>B17/D17</f>
+      <c r="E17" s="22">
+        <f t="shared" si="1"/>
         <v>540.76249546175791</v>
       </c>
       <c r="G17" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Mato Grosso do Sul &amp; 106.943.246 &amp; 1,4 &amp; 197.764 &amp; 541 \\ \hline</v>
       </c>
     </row>
@@ -10166,19 +12976,19 @@
         <v>97339938</v>
       </c>
       <c r="C18" s="11">
-        <f>100*B18/$B$29</f>
+        <f t="shared" si="0"/>
         <v>1.3173394543959229</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <f>VLOOKUP(A18,average!A:J,10,FALSE)</f>
         <v>317848.3</v>
       </c>
-      <c r="E18" s="26">
-        <f>B18/D18</f>
+      <c r="E18" s="22">
+        <f t="shared" si="1"/>
         <v>306.24652703821289</v>
       </c>
       <c r="G18" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Maranhão &amp; 97.339.938 &amp; 1,3 &amp; 317.848 &amp; 306 \\ \hline</v>
       </c>
     </row>
@@ -10191,19 +13001,19 @@
         <v>71336780</v>
       </c>
       <c r="C19" s="11">
-        <f>100*B19/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.9654285463337976</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <f>VLOOKUP(A19,average!A:J,10,FALSE)</f>
         <v>191595.3</v>
       </c>
-      <c r="E19" s="26">
-        <f>B19/D19</f>
+      <c r="E19" s="22">
+        <f t="shared" si="1"/>
         <v>372.33053211639327</v>
       </c>
       <c r="G19" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Rio Grande do Norte &amp; 71.336.780 &amp; 1,0 &amp; 191.595 &amp; 372 \\ \hline</v>
       </c>
     </row>
@@ -10216,19 +13026,19 @@
         <v>67986074</v>
       </c>
       <c r="C20" s="11">
-        <f>100*B20/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.92008213144414408</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="22">
         <f>VLOOKUP(A20,average!A:J,10,FALSE)</f>
         <v>219648.09999999998</v>
       </c>
-      <c r="E20" s="26">
-        <f>B20/D20</f>
+      <c r="E20" s="22">
+        <f t="shared" si="1"/>
         <v>309.52270472633273</v>
       </c>
       <c r="G20" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Paraíba &amp; 67.986.074 &amp; 0,9 &amp; 219.648 &amp; 310 \\ \hline</v>
       </c>
     </row>
@@ -10241,19 +13051,19 @@
         <v>58963729</v>
       </c>
       <c r="C21" s="11">
-        <f>100*B21/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.79797920756852192</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <f>VLOOKUP(A21,average!A:J,10,FALSE)</f>
         <v>153310.79999999999</v>
       </c>
-      <c r="E21" s="26">
-        <f>B21/D21</f>
+      <c r="E21" s="22">
+        <f t="shared" si="1"/>
         <v>384.60257855284823</v>
       </c>
       <c r="G21" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Alagoas &amp; 58.963.729 &amp; 0,8 &amp; 153.311 &amp; 385 \\ \hline</v>
       </c>
     </row>
@@ -10266,19 +13076,19 @@
         <v>52780785</v>
       </c>
       <c r="C22" s="11">
-        <f>100*B22/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.71430300802624824</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <f>VLOOKUP(A22,average!A:J,10,FALSE)</f>
         <v>167633.9</v>
       </c>
-      <c r="E22" s="26">
-        <f>B22/D22</f>
+      <c r="E22" s="22">
+        <f t="shared" si="1"/>
         <v>314.85746618076655</v>
       </c>
       <c r="G22" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Piauí &amp; 52.780.785 &amp; 0,7 &amp; 167.634 &amp; 315 \\ \hline</v>
       </c>
     </row>
@@ -10291,19 +13101,19 @@
         <v>47091336</v>
       </c>
       <c r="C23" s="11">
-        <f>100*B23/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.63730546934409471</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="22">
         <f>VLOOKUP(A23,average!A:J,10,FALSE)</f>
         <v>121274.9</v>
       </c>
-      <c r="E23" s="26">
-        <f>B23/D23</f>
+      <c r="E23" s="22">
+        <f t="shared" si="1"/>
         <v>388.30241047405525</v>
       </c>
       <c r="G23" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Rondônia &amp; 47.091.336 &amp; 0,6 &amp; 121.275 &amp; 388 \\ \hline</v>
       </c>
     </row>
@@ -10316,19 +13126,19 @@
         <v>44689483</v>
       </c>
       <c r="C24" s="11">
-        <f>100*B24/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.60480025323681497</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <f>VLOOKUP(A24,average!A:J,10,FALSE)</f>
         <v>131389.6</v>
       </c>
-      <c r="E24" s="26">
-        <f>B24/D24</f>
+      <c r="E24" s="22">
+        <f t="shared" si="1"/>
         <v>340.12953080000244</v>
       </c>
       <c r="G24" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Sergipe &amp; 44.689.483 &amp; 0,6 &amp; 131.390 &amp; 340 \\ \hline</v>
       </c>
     </row>
@@ -10341,19 +13151,19 @@
         <v>39355941</v>
       </c>
       <c r="C25" s="11">
-        <f>100*B25/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.53261934319475457</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <f>VLOOKUP(A25,average!A:J,10,FALSE)</f>
         <v>96136.5</v>
       </c>
-      <c r="E25" s="26">
-        <f>B25/D25</f>
+      <c r="E25" s="22">
+        <f t="shared" si="1"/>
         <v>409.37563776505283</v>
       </c>
       <c r="G25" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Tocantins &amp; 39.355.941 &amp; 0,5 &amp; 96.137 &amp; 409 \\ \hline</v>
       </c>
     </row>
@@ -10366,19 +13176,19 @@
         <v>17496661</v>
       </c>
       <c r="C26" s="11">
-        <f>100*B26/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.23678915693875233</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <f>VLOOKUP(A26,average!A:J,10,FALSE)</f>
         <v>46468.299999999996</v>
       </c>
-      <c r="E26" s="26">
-        <f>B26/D26</f>
+      <c r="E26" s="22">
+        <f t="shared" si="1"/>
         <v>376.52896705926412</v>
       </c>
       <c r="G26" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Amapá &amp; 17.496.661 &amp; 0,2 &amp; 46.468 &amp; 377 \\ \hline</v>
       </c>
     </row>
@@ -10391,19 +13201,19 @@
         <v>15630017</v>
       </c>
       <c r="C27" s="11">
-        <f>100*B27/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.21152713356956318</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="22">
         <f>VLOOKUP(A27,average!A:J,10,FALSE)</f>
         <v>44426.6</v>
       </c>
-      <c r="E27" s="26">
-        <f>B27/D27</f>
+      <c r="E27" s="22">
+        <f t="shared" si="1"/>
         <v>351.81663687970723</v>
       </c>
       <c r="G27" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Acre &amp; 15.630.017 &amp; 0,2 &amp; 44.427 &amp; 352 \\ \hline</v>
       </c>
     </row>
@@ -10416,19 +13226,19 @@
         <v>14292227</v>
       </c>
       <c r="C28" s="11">
-        <f>100*B28/$B$29</f>
+        <f t="shared" si="0"/>
         <v>0.19342229823777654</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <f>VLOOKUP(A28,average!A:J,10,FALSE)</f>
         <v>32173.1</v>
       </c>
-      <c r="E28" s="26">
-        <f>B28/D28</f>
+      <c r="E28" s="22">
+        <f t="shared" si="1"/>
         <v>444.22909200543313</v>
       </c>
       <c r="G28" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Roraima &amp; 14.292.227 &amp; 0,2 &amp; 32.173 &amp; 444 \\ \hline</v>
       </c>
     </row>
@@ -10441,19 +13251,19 @@
         <v>7389131000</v>
       </c>
       <c r="C29" s="11">
-        <f>100*B29/$B$29</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <f>VLOOKUP(A29,average!A:J,10,FALSE)</f>
         <v>14300643.300000001</v>
       </c>
-      <c r="E29" s="26">
-        <f>B29/D29</f>
+      <c r="E29" s="22">
+        <f t="shared" si="1"/>
         <v>516.6992033148606</v>
       </c>
       <c r="G29" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Brasil &amp; 7.389.131.000 &amp; 100,0 &amp; 14.300.643 &amp; 517 \\ \hline</v>
       </c>
     </row>
@@ -10466,19 +13276,19 @@
         <v>5040793000</v>
       </c>
       <c r="C30" s="11">
-        <f>100*B30/$B$29</f>
+        <f t="shared" si="0"/>
         <v>68.219023319521611</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <f>VLOOKUP(A30,average!A:J,10,FALSE)</f>
         <v>10755342.100000001</v>
       </c>
-      <c r="E30" s="27">
-        <f>B30/D30</f>
+      <c r="E30" s="23">
+        <f t="shared" si="1"/>
         <v>468.67807208103585</v>
       </c>
       <c r="G30" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Rest of Brasil &amp; 5.040.793.000 &amp; 68,2 &amp; 10.755.342 &amp; 469 \\ \hline</v>
       </c>
     </row>

--- a/data/data_sets.xlsx
+++ b/data/data_sets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\gdrive\projects\masterthesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mastersthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25EAAAC-6663-4A8D-A69B-794BEEE871A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9AAB1-6A90-4C75-891A-1A9CDA833CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="814" xr2:uid="{E541E546-3513-455E-8D90-68968F86EB05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="814" activeTab="5" xr2:uid="{E541E546-3513-455E-8D90-68968F86EB05}"/>
   </bookViews>
   <sheets>
     <sheet name="Haddad_2017" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="85">
   <si>
     <t>Distrito Federal</t>
   </si>
@@ -287,6 +287,9 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>GDP/ worked hour</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +304,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +340,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -402,7 +412,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -434,9 +444,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -450,18 +457,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,6 +479,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,20 +818,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAECB66-2D6E-4760-BA5C-71E0CB786F85}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ35" sqref="AJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -875,7 +891,7 @@
       <c r="T1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="23" t="s">
         <v>38</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -902,10 +918,10 @@
       <c r="AC1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="25" t="s">
         <v>81</v>
       </c>
     </row>
@@ -970,7 +986,7 @@
       <c r="T2">
         <v>2.7</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="26">
         <v>12.9</v>
       </c>
       <c r="V2">
@@ -997,11 +1013,11 @@
       <c r="AC2">
         <v>6.3</v>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="27">
         <f>VLOOKUP(A2,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>47091336</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AE2" s="28">
         <f t="shared" ref="AE2:AE20" si="0">IF(A2="SP",0,U2*AD2)</f>
         <v>607478234.39999998</v>
       </c>
@@ -1067,7 +1083,7 @@
       <c r="T3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="26">
         <v>7.9</v>
       </c>
       <c r="V3">
@@ -1094,11 +1110,11 @@
       <c r="AC3">
         <v>3.6</v>
       </c>
-      <c r="AD3" s="32">
+      <c r="AD3" s="27">
         <f>VLOOKUP(A3,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>15630017</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AE3" s="28">
         <f t="shared" si="0"/>
         <v>123477134.30000001</v>
       </c>
@@ -1164,7 +1180,7 @@
       <c r="T4">
         <v>3.8</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="26">
         <v>15.7</v>
       </c>
       <c r="V4">
@@ -1191,11 +1207,11 @@
       <c r="AC4">
         <v>10.7</v>
       </c>
-      <c r="AD4" s="32">
+      <c r="AD4" s="27">
         <f>VLOOKUP(A4,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>108181091</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="28">
         <f t="shared" si="0"/>
         <v>1698443128.6999998</v>
       </c>
@@ -1261,7 +1277,7 @@
       <c r="T5">
         <v>0.4</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="26">
         <v>1.3</v>
       </c>
       <c r="V5">
@@ -1288,11 +1304,11 @@
       <c r="AC5">
         <v>2.4</v>
       </c>
-      <c r="AD5" s="32">
+      <c r="AD5" s="27">
         <f>VLOOKUP(A5,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>14292227</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AE5" s="28">
         <f t="shared" si="0"/>
         <v>18579895.100000001</v>
       </c>
@@ -1358,7 +1374,7 @@
       <c r="T6">
         <v>2</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="26">
         <v>8.8000000000000007</v>
       </c>
       <c r="V6">
@@ -1385,11 +1401,11 @@
       <c r="AC6">
         <v>29.3</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="27">
         <f>VLOOKUP(A6,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>178376984</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AE6" s="28">
         <f t="shared" si="0"/>
         <v>1569717459.2</v>
       </c>
@@ -1455,7 +1471,7 @@
       <c r="T7">
         <v>1.6</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="26">
         <v>6.3</v>
       </c>
       <c r="V7">
@@ -1482,11 +1498,11 @@
       <c r="AC7">
         <v>12</v>
       </c>
-      <c r="AD7" s="32">
+      <c r="AD7" s="27">
         <f>VLOOKUP(A7,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>17496661</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="28">
         <f t="shared" si="0"/>
         <v>110228964.3</v>
       </c>
@@ -1552,7 +1568,7 @@
       <c r="T8">
         <v>3.4</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="26">
         <v>12</v>
       </c>
       <c r="V8">
@@ -1579,11 +1595,11 @@
       <c r="AC8">
         <v>7.4</v>
       </c>
-      <c r="AD8" s="32">
+      <c r="AD8" s="27">
         <f>VLOOKUP(A8,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>39355941</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="28">
         <f t="shared" si="0"/>
         <v>472271292</v>
       </c>
@@ -1649,7 +1665,7 @@
       <c r="T9">
         <v>2.4</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="26">
         <v>8.9</v>
       </c>
       <c r="V9">
@@ -1676,11 +1692,11 @@
       <c r="AC9">
         <v>14.2</v>
       </c>
-      <c r="AD9" s="32">
+      <c r="AD9" s="27">
         <f>VLOOKUP(A9,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>97339938</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AE9" s="28">
         <f t="shared" si="0"/>
         <v>866325448.20000005</v>
       </c>
@@ -1746,7 +1762,7 @@
       <c r="T10">
         <v>2.7</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="26">
         <v>7.8</v>
       </c>
       <c r="V10">
@@ -1773,11 +1789,11 @@
       <c r="AC10">
         <v>5.4</v>
       </c>
-      <c r="AD10" s="32">
+      <c r="AD10" s="27">
         <f>VLOOKUP(A10,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>52780785</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="28">
         <f t="shared" si="0"/>
         <v>411690123</v>
       </c>
@@ -1843,7 +1859,7 @@
       <c r="T11">
         <v>1.6</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="26">
         <v>7.7</v>
       </c>
       <c r="V11">
@@ -1870,11 +1886,11 @@
       <c r="AC11">
         <v>5</v>
       </c>
-      <c r="AD11" s="32">
+      <c r="AD11" s="27">
         <f>VLOOKUP(A11,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>163575327</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AE11" s="28">
         <f t="shared" si="0"/>
         <v>1259530017.9000001</v>
       </c>
@@ -1940,7 +1956,7 @@
       <c r="T12">
         <v>2.4</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="26">
         <v>7.3</v>
       </c>
       <c r="V12">
@@ -1967,11 +1983,11 @@
       <c r="AC12">
         <v>5</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="27">
         <f>VLOOKUP(A12,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>71336780</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="28">
         <f t="shared" si="0"/>
         <v>520758494</v>
       </c>
@@ -2037,7 +2053,7 @@
       <c r="T13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="26">
         <v>7.3</v>
       </c>
       <c r="V13">
@@ -2064,11 +2080,11 @@
       <c r="AC13">
         <v>3.9</v>
       </c>
-      <c r="AD13" s="32">
+      <c r="AD13" s="27">
         <f>VLOOKUP(A13,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>67986074</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="28">
         <f t="shared" si="0"/>
         <v>496298340.19999999</v>
       </c>
@@ -2134,7 +2150,7 @@
       <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="26">
         <v>7.6</v>
       </c>
       <c r="V14">
@@ -2161,11 +2177,11 @@
       <c r="AC14">
         <v>5.5</v>
       </c>
-      <c r="AD14" s="32">
+      <c r="AD14" s="27">
         <f>VLOOKUP(A14,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>197853378</v>
       </c>
-      <c r="AE14" s="33">
+      <c r="AE14" s="28">
         <f t="shared" si="0"/>
         <v>1503685672.8</v>
       </c>
@@ -2231,7 +2247,7 @@
       <c r="T15">
         <v>1.9</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="26">
         <v>7.7</v>
       </c>
       <c r="V15">
@@ -2258,11 +2274,11 @@
       <c r="AC15">
         <v>12.4</v>
       </c>
-      <c r="AD15" s="32">
+      <c r="AD15" s="27">
         <f>VLOOKUP(A15,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>58963729</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AE15" s="28">
         <f t="shared" si="0"/>
         <v>454020713.30000001</v>
       </c>
@@ -2328,7 +2344,7 @@
       <c r="T16">
         <v>2.9</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="26">
         <v>9.9</v>
       </c>
       <c r="V16">
@@ -2355,11 +2371,11 @@
       <c r="AC16">
         <v>6.6</v>
       </c>
-      <c r="AD16" s="32">
+      <c r="AD16" s="27">
         <f>VLOOKUP(A16,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>44689483</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AE16" s="28">
         <f t="shared" si="0"/>
         <v>442425881.69999999</v>
       </c>
@@ -2425,7 +2441,7 @@
       <c r="T17">
         <v>3.1</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="26">
         <v>10.7</v>
       </c>
       <c r="V17">
@@ -2452,11 +2468,11 @@
       <c r="AC17">
         <v>13.5</v>
       </c>
-      <c r="AD17" s="32">
+      <c r="AD17" s="27">
         <f>VLOOKUP(A17,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>293240504</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AE17" s="28">
         <f t="shared" si="0"/>
         <v>3137673392.7999997</v>
       </c>
@@ -2522,7 +2538,7 @@
       <c r="T18">
         <v>3.5</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="26">
         <v>13.9</v>
       </c>
       <c r="V18">
@@ -2549,11 +2565,11 @@
       <c r="AC18">
         <v>17.399999999999999</v>
       </c>
-      <c r="AD18" s="32">
+      <c r="AD18" s="27">
         <f>VLOOKUP(A18,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>651872684</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE18" s="28">
         <f t="shared" si="0"/>
         <v>9061030307.6000004</v>
       </c>
@@ -2619,7 +2635,7 @@
       <c r="T19">
         <v>6.2</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="26">
         <v>10.9</v>
       </c>
       <c r="V19">
@@ -2646,11 +2662,11 @@
       <c r="AC19">
         <v>28.3</v>
       </c>
-      <c r="AD19" s="32">
+      <c r="AD19" s="27">
         <f>VLOOKUP(A19,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>137345595</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AE19" s="28">
         <f t="shared" si="0"/>
         <v>1497066985.5</v>
       </c>
@@ -2716,7 +2732,7 @@
       <c r="T20">
         <v>45.8</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="26">
         <v>17</v>
       </c>
       <c r="V20">
@@ -2743,11 +2759,11 @@
       <c r="AC20">
         <v>14.7</v>
       </c>
-      <c r="AD20" s="32">
+      <c r="AD20" s="27">
         <f>VLOOKUP(A20,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>779927917</v>
       </c>
-      <c r="AE20" s="33">
+      <c r="AE20" s="28">
         <f t="shared" si="0"/>
         <v>13258774589</v>
       </c>
@@ -2813,7 +2829,7 @@
       <c r="T21">
         <v>5.9</v>
       </c>
-      <c r="U21" s="31">
+      <c r="U21" s="26">
         <v>52.8</v>
       </c>
       <c r="V21">
@@ -2840,11 +2856,11 @@
       <c r="AC21">
         <v>11.4</v>
       </c>
-      <c r="AD21" s="32">
+      <c r="AD21" s="27">
         <f>VLOOKUP(A21,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>2348338000</v>
       </c>
-      <c r="AE21" s="33">
+      <c r="AE21" s="28">
         <f>IF(A21="SP",0,U21*AD21)</f>
         <v>0</v>
       </c>
@@ -2910,7 +2926,7 @@
       <c r="T22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="26">
         <v>22.7</v>
       </c>
       <c r="V22">
@@ -2937,11 +2953,11 @@
       <c r="AC22">
         <v>12.2</v>
       </c>
-      <c r="AD22" s="32">
+      <c r="AD22" s="27">
         <f>VLOOKUP(A22,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>466377036</v>
       </c>
-      <c r="AE22" s="33">
+      <c r="AE22" s="28">
         <f t="shared" ref="AE22:AE28" si="1">IF(A22="SP",0,U22*AD22)</f>
         <v>10586758717.199999</v>
       </c>
@@ -3007,7 +3023,7 @@
       <c r="T23">
         <v>2.9</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="26">
         <v>17.3</v>
       </c>
       <c r="V23">
@@ -3034,11 +3050,11 @@
       <c r="AC23">
         <v>10.9</v>
       </c>
-      <c r="AD23" s="32">
+      <c r="AD23" s="27">
         <f>VLOOKUP(A23,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>323263857</v>
       </c>
-      <c r="AE23" s="33">
+      <c r="AE23" s="28">
         <f t="shared" si="1"/>
         <v>5592464726.1000004</v>
       </c>
@@ -3104,7 +3120,7 @@
       <c r="T24">
         <v>3.6</v>
       </c>
-      <c r="U24" s="31">
+      <c r="U24" s="26">
         <v>14.4</v>
       </c>
       <c r="V24">
@@ -3131,11 +3147,11 @@
       <c r="AC24">
         <v>12.4</v>
       </c>
-      <c r="AD24" s="32">
+      <c r="AD24" s="27">
         <f>VLOOKUP(A24,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>482464177</v>
       </c>
-      <c r="AE24" s="33">
+      <c r="AE24" s="28">
         <f t="shared" si="1"/>
         <v>6947484148.8000002</v>
       </c>
@@ -3201,7 +3217,7 @@
       <c r="T25">
         <v>3.7</v>
       </c>
-      <c r="U25" s="31">
+      <c r="U25" s="26">
         <v>19.2</v>
       </c>
       <c r="V25">
@@ -3228,11 +3244,11 @@
       <c r="AC25">
         <v>14</v>
       </c>
-      <c r="AD25" s="32">
+      <c r="AD25" s="27">
         <f>VLOOKUP(A25,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>106943246</v>
       </c>
-      <c r="AE25" s="33">
+      <c r="AE25" s="28">
         <f t="shared" si="1"/>
         <v>2053310323.1999998</v>
       </c>
@@ -3298,7 +3314,7 @@
       <c r="T26">
         <v>3.9</v>
       </c>
-      <c r="U26" s="31">
+      <c r="U26" s="26">
         <v>13</v>
       </c>
       <c r="V26">
@@ -3325,11 +3341,11 @@
       <c r="AC26">
         <v>24.3</v>
       </c>
-      <c r="AD26" s="32">
+      <c r="AD26" s="27">
         <f>VLOOKUP(A26,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>142122028</v>
       </c>
-      <c r="AE26" s="33">
+      <c r="AE26" s="28">
         <f t="shared" si="1"/>
         <v>1847586364</v>
       </c>
@@ -3395,7 +3411,7 @@
       <c r="T27">
         <v>3.7</v>
       </c>
-      <c r="U27" s="31">
+      <c r="U27" s="26">
         <v>16.2</v>
       </c>
       <c r="V27">
@@ -3422,11 +3438,11 @@
       <c r="AC27">
         <v>10.1</v>
       </c>
-      <c r="AD27" s="32">
+      <c r="AD27" s="27">
         <f>VLOOKUP(A27,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>208672492</v>
       </c>
-      <c r="AE27" s="33">
+      <c r="AE27" s="28">
         <f t="shared" si="1"/>
         <v>3380494370.3999996</v>
       </c>
@@ -3492,7 +3508,7 @@
       <c r="T28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="26">
         <v>9</v>
       </c>
       <c r="V28">
@@ -3519,30 +3535,30 @@
       <c r="AC28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AD28" s="32">
+      <c r="AD28" s="27">
         <f>VLOOKUP(A28,tabela_5938_GDP!E:F,2,FALSE)</f>
         <v>273613711</v>
       </c>
-      <c r="AE28" s="33">
+      <c r="AE28" s="28">
         <f t="shared" si="1"/>
         <v>2462523399</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AD30" s="33">
+      <c r="AD30" s="28">
         <f>SUM(AD2:AD28)</f>
         <v>7389130998</v>
       </c>
-      <c r="AE30" s="33">
+      <c r="AE30" s="28">
         <f>SUM(AE2:AE28)</f>
         <v>70380098122.699997</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AD31" s="34" t="s">
+      <c r="AD31" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AE31" s="35">
+      <c r="AE31" s="30">
         <f>0.01*AE30/AD30</f>
         <v>9.5248139655055006E-2</v>
       </c>
@@ -11269,10 +11285,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8C45-134A-42CF-99E8-B03C1330162E}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11282,1239 +11298,1372 @@
     <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="17" t="str">
         <f>B2</f>
         <v>1º trimestre 2019</v>
       </c>
-      <c r="G2" s="17" t="str">
+      <c r="G2" s="16" t="str">
         <f t="shared" ref="G2:I2" si="0">C2</f>
         <v>2º trimestre 2019</v>
       </c>
-      <c r="H2" s="17" t="str">
+      <c r="H2" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3º trimestre 2019</v>
       </c>
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="18" t="str">
         <f t="shared" si="0"/>
         <v>4º trimestre 2019</v>
       </c>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>22322</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>22696</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>22918</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <f>VLOOKUP($A3,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>23014</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.1</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.4</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <f>VLOOKUP($A3,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <f>SUMPRODUCT(B3:E3,F3:I3)</f>
         <v>3545301.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="19">
+        <f>AVERAGE(F3:I3)</f>
+        <v>38.974999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>7604</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>7589</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>7685</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <f>VLOOKUP($A4,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>7761</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>39.1</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.6</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <f>VLOOKUP($A4,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="J4" s="20">
-        <f t="shared" ref="J4:J30" si="1">SUMPRODUCT(B4:E4,F4:I4)</f>
+      <c r="J4" s="19">
+        <f t="shared" ref="J4:K30" si="1">SUMPRODUCT(B4:E4,F4:I4)</f>
         <v>1211037.4000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="19">
+        <f t="shared" ref="K4:K31" si="2">AVERAGE(F4:I4)</f>
+        <v>39.525000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>9926</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>10293</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>10334</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <f>VLOOKUP($A5,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>10363</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.6</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.1</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.9</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <f>VLOOKUP($A5,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.4</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <f t="shared" si="1"/>
         <v>1514470.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="19">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>5668</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>5714</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>5657</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <f>VLOOKUP($A6,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>5819</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.4</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.5</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <f>VLOOKUP($A6,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <f t="shared" si="1"/>
         <v>893767.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="19">
+        <f t="shared" si="2"/>
+        <v>39.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>5548</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>5576</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>5613</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f>VLOOKUP($A7,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>5671</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.9</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <f>VLOOKUP($A7,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f t="shared" si="1"/>
         <v>867264.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="19">
+        <f t="shared" si="2"/>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3635</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3677</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3695</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <f>VLOOKUP($A8,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3767</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>39.5</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>40.5</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f>VLOOKUP($A8,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f t="shared" si="1"/>
         <v>592855.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="19">
+        <f t="shared" si="2"/>
+        <v>40.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>5765</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>5857</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>5862</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f>VLOOKUP($A9,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>5867</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>34.9</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.5</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f>VLOOKUP($A9,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <f t="shared" si="1"/>
         <v>832538.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="19">
+        <f t="shared" si="2"/>
+        <v>35.650000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1438</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1462</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1472</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <f>VLOOKUP($A10,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1463</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.299999999999997</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f>VLOOKUP($A10,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <f t="shared" si="1"/>
         <v>222053.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="19">
+        <f t="shared" si="2"/>
+        <v>38.049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3344</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3366</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3426</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f>VLOOKUP($A11,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3431</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>39.1</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <f>VLOOKUP($A11,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <f t="shared" si="1"/>
         <v>531835.10000000009</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="19">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3573</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3553</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3541</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f>VLOOKUP($A12,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3646</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.4</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <f>VLOOKUP($A12,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <f t="shared" si="1"/>
         <v>538198.80000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="19">
+        <f t="shared" si="2"/>
+        <v>37.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3392</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3403</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3471</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f>VLOOKUP($A13,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3521</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f>VLOOKUP($A13,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <f t="shared" si="1"/>
         <v>497051.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="19">
+        <f t="shared" si="2"/>
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>3646</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>3705</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>3706</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>VLOOKUP($A14,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>3790</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>VLOOKUP($A14,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <f t="shared" si="1"/>
         <v>542370</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="19">
+        <f t="shared" si="2"/>
+        <v>36.525000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1656</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1699</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1707</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f>VLOOKUP($A15,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1703</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.9</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.9</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <f>VLOOKUP($A15,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>39.5</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <f t="shared" si="1"/>
         <v>265545.90000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="19">
+        <f t="shared" si="2"/>
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1888</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1960</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1943</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f>VLOOKUP($A16,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1948</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>38.1</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <f>VLOOKUP($A16,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.5</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="19">
         <f t="shared" si="1"/>
         <v>299144.40000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="19">
+        <f t="shared" si="2"/>
+        <v>38.650000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1548</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1622</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1642</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f>VLOOKUP($A17,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1654</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.5</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <f>VLOOKUP($A17,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.5</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <f t="shared" si="1"/>
         <v>232169</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="19">
+        <f t="shared" si="2"/>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1295</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1338</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1329</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f>VLOOKUP($A18,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1336</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.6</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <f>VLOOKUP($A18,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <f t="shared" si="1"/>
         <v>197763.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="19">
+        <f t="shared" si="2"/>
+        <v>37.325000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>2163</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>2236</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>2274</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f>VLOOKUP($A19,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>2330</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>34.9</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>35.4</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <f>VLOOKUP($A19,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.4</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <f t="shared" si="1"/>
         <v>317848.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="19">
+        <f t="shared" si="2"/>
+        <v>35.300000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1308</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1346</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1333</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f>VLOOKUP($A20,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1335</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.9</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.5</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <f>VLOOKUP($A20,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <f t="shared" si="1"/>
         <v>191595.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="19">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1494</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1492</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1506</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f>VLOOKUP($A21,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1489</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <f>VLOOKUP($A21,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <f t="shared" si="1"/>
         <v>219648.09999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="19">
+        <f t="shared" si="2"/>
+        <v>36.724999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1008</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1060</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1042</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <f>VLOOKUP($A22,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1028</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <f>VLOOKUP($A22,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.6</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="19">
         <f t="shared" si="1"/>
         <v>153310.79999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="19">
+        <f t="shared" si="2"/>
+        <v>37.050000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>1264</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>1276</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>1340</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <f>VLOOKUP($A23,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>1303</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>31.2</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>32.1</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>33.5</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f>VLOOKUP($A23,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>32.5</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <f t="shared" si="1"/>
         <v>167633.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="19">
+        <f t="shared" si="2"/>
+        <v>32.325000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>792</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>809</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>812</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <f>VLOOKUP($A24,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>810</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.1</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.9</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <f>VLOOKUP($A24,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <f t="shared" si="1"/>
         <v>121274.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="19">
+        <f t="shared" si="2"/>
+        <v>37.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>898</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>932</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>934</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <f>VLOOKUP($A25,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>957</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>35.1</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <f>VLOOKUP($A25,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <f t="shared" si="1"/>
         <v>131389.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="19">
+        <f t="shared" si="2"/>
+        <v>35.300000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>631</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>644</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>650</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f>VLOOKUP($A26,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>656</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.5</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.5</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <f>VLOOKUP($A26,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <f t="shared" si="1"/>
         <v>96136.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="19">
+        <f t="shared" si="2"/>
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>305</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>333</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>325</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <f>VLOOKUP($A27,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>331</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>35.9</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.1</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <f>VLOOKUP($A27,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>35.1</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <f t="shared" si="1"/>
         <v>46468.299999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="19">
+        <f t="shared" si="2"/>
+        <v>35.924999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>292</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>309</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>309</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f>VLOOKUP($A28,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>304</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>36.6</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <f>VLOOKUP($A28,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="19">
         <f t="shared" si="1"/>
         <v>44426.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="19">
+        <f t="shared" si="2"/>
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>218</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>211</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>212</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <f>VLOOKUP($A29,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>217</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>36.4</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>37.9</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <f>VLOOKUP($A29,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.4</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="19">
         <f t="shared" si="1"/>
         <v>32173.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="19">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,2,FALSE)</f>
         <v>92621</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,3,FALSE)</f>
         <v>94159</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,4,FALSE)</f>
         <v>94737</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f>VLOOKUP($A30,tabela_4092_workers!$A:$E,5,FALSE)</f>
         <v>95515</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,2,FALSE)</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,3,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,4,FALSE)</f>
         <v>38.299999999999997</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <f>VLOOKUP($A30,tabela_6371_hours!$A:$E,5,FALSE)</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="19">
         <f t="shared" si="1"/>
         <v>14300643.300000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="19">
+        <f t="shared" si="2"/>
+        <v>37.924999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <f>B30-B3</f>
         <v>70299</v>
       </c>
-      <c r="C31" s="17">
-        <f t="shared" ref="C31:E31" si="2">C30-C3</f>
+      <c r="C31" s="16">
+        <f t="shared" ref="C31:E31" si="3">C30-C3</f>
         <v>71463</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
+        <f t="shared" si="3"/>
+        <v>71819</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="3"/>
+        <v>72501</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" ref="F31:H31" si="4">G31</f>
+        <v>37.595312183220202</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="4"/>
+        <v>37.595312183220202</v>
+      </c>
+      <c r="H31" s="16">
+        <f>I31</f>
+        <v>37.595312183220202</v>
+      </c>
+      <c r="I31" s="18">
+        <f>J31/SUM(B31:E31)</f>
+        <v>37.595312183220202</v>
+      </c>
+      <c r="J31" s="19">
+        <f t="shared" ref="J31:K32" si="5">J30-J3</f>
+        <v>10755342.100000001</v>
+      </c>
+      <c r="K31" s="19">
         <f t="shared" si="2"/>
-        <v>71819</v>
-      </c>
-      <c r="E31" s="19">
-        <f t="shared" si="2"/>
-        <v>72501</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20">
-        <f t="shared" ref="J31" si="3">J30-J3</f>
-        <v>10755342.100000001</v>
+        <v>37.595312183220202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12522,10 +12671,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE356E4D-9750-4B2A-9204-FA86589ECEE8}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12533,13 +12682,15 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="84.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
@@ -12558,11 +12709,15 @@
       <c r="F1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -12574,24 +12729,32 @@
         <f t="shared" ref="C2:C30" si="0">100*B2/$B$29</f>
         <v>31.780976680478396</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>VLOOKUP(A2,average!A:J,10,FALSE)</f>
         <v>3545301.2</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <f t="shared" ref="E2:E30" si="1">B2/D2</f>
         <v>662.38039239092006</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f>E30/E2</f>
         <v>0.70756634324470458</v>
       </c>
-      <c r="G2" s="15" t="str">
+      <c r="G2" s="14" t="str">
         <f>CONCATENATE(A2," &amp; ",TEXT(B2,"#.###.###")," &amp; ",TEXT(C2,"0,0")," &amp; ",TEXT(D2,"#.###.###")," &amp; ",TEXT(E2,"#.###")," \\ \hline")</f>
         <v>São Paulo &amp; 2.348.338.000 &amp; 31,8 &amp; 3.545.301 &amp; 662 \\ \hline</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="39">
+        <f>B2/average!K3</f>
+        <v>60252418.216805652</v>
+      </c>
+      <c r="I2" s="40">
+        <f>H2/$H$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12603,20 +12766,25 @@
         <f t="shared" si="0"/>
         <v>10.555069560953784</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>VLOOKUP(A3,average!A:J,10,FALSE)</f>
         <v>1211037.4000000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f t="shared" si="1"/>
         <v>644.01637554711351</v>
       </c>
-      <c r="G3" s="15" t="str">
+      <c r="G3" s="14" t="str">
         <f t="shared" ref="G3:G30" si="2">CONCATENATE(A3," &amp; ",TEXT(B3,"#.###.###")," &amp; ",TEXT(C3,"0,0")," &amp; ",TEXT(D3,"#.###.###")," &amp; ",TEXT(E3,"#.###")," \\ \hline")</f>
         <v>Rio de Janeiro &amp; 779.927.917 &amp; 10,6 &amp; 1.211.037 &amp; 644 \\ \hline</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="39">
+        <f>B3/average!K4</f>
+        <v>19732521.619228333</v>
+      </c>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -12628,21 +12796,26 @@
         <f t="shared" si="0"/>
         <v>8.8220480053743806</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>VLOOKUP(A4,average!A:J,10,FALSE)</f>
         <v>1514470.7</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <f t="shared" si="1"/>
         <v>430.42937971662315</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="15" t="str">
+      <c r="F4" s="20"/>
+      <c r="G4" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Minas Gerais &amp; 651.872.684 &amp; 8,8 &amp; 1.514.471 &amp; 430 \\ \hline</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="39">
+        <f>B4/average!K5</f>
+        <v>17618180.648648649</v>
+      </c>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12654,20 +12827,25 @@
         <f t="shared" si="0"/>
         <v>6.529376417876473</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>VLOOKUP(A5,average!A:J,10,FALSE)</f>
         <v>893767.7</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <f t="shared" si="1"/>
         <v>539.80936769140351</v>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Rio Grande do Sul &amp; 482.464.177 &amp; 6,5 &amp; 893.768 &amp; 540 \\ \hline</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="39">
+        <f>B5/average!K6</f>
+        <v>12339237.263427112</v>
+      </c>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12679,20 +12857,25 @@
         <f t="shared" si="0"/>
         <v>6.3116628464159046</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <f>VLOOKUP(A6,average!A:J,10,FALSE)</f>
         <v>867264.6</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <f t="shared" si="1"/>
         <v>537.75633872292269</v>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Paraná &amp; 466.377.036 &amp; 6,3 &amp; 867.265 &amp; 538 \\ \hline</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="39">
+        <f>B6/average!K7</f>
+        <v>12051086.201550387</v>
+      </c>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12704,20 +12887,25 @@
         <f t="shared" si="0"/>
         <v>4.3748562178691923</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f>VLOOKUP(A7,average!A:J,10,FALSE)</f>
         <v>592855.5</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <f t="shared" si="1"/>
         <v>545.26584808608504</v>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Santa Catarina &amp; 323.263.857 &amp; 4,4 &amp; 592.856 &amp; 545 \\ \hline</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="39">
+        <f>B7/average!K8</f>
+        <v>8056420.1121495329</v>
+      </c>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -12729,20 +12917,25 @@
         <f t="shared" si="0"/>
         <v>3.9685384384171831</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <f>VLOOKUP(A8,average!A:J,10,FALSE)</f>
         <v>832538.4</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <f t="shared" si="1"/>
         <v>352.22459888937254</v>
       </c>
-      <c r="G8" s="15" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Bahia &amp; 293.240.504 &amp; 4,0 &amp; 832.538 &amp; 352 \\ \hline</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="39">
+        <f>B8/average!K9</f>
+        <v>8225540.084151471</v>
+      </c>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -12754,20 +12947,25 @@
         <f t="shared" si="0"/>
         <v>3.7029213719448202</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f>VLOOKUP(A9,average!A:J,10,FALSE)</f>
         <v>222053.6</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f t="shared" si="1"/>
         <v>1232.1966903486366</v>
       </c>
-      <c r="G9" s="15" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Distrito Federal &amp; 273.613.711 &amp; 3,7 &amp; 222.054 &amp; 1.232 \\ \hline</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="39">
+        <f>B9/average!K10</f>
+        <v>7190899.1064388966</v>
+      </c>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -12779,20 +12977,25 @@
         <f t="shared" si="0"/>
         <v>2.824046454177088</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <f>VLOOKUP(A10,average!A:J,10,FALSE)</f>
         <v>531835.10000000009</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" si="1"/>
         <v>392.36314413997866</v>
       </c>
-      <c r="G10" s="15" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Goiás &amp; 208.672.492 &amp; 2,8 &amp; 531.835 &amp; 392 \\ \hline</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="39">
+        <f>B10/average!K11</f>
+        <v>5323277.8571428563</v>
+      </c>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -12804,20 +13007,25 @@
         <f t="shared" si="0"/>
         <v>2.6776271526381112</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <f>VLOOKUP(A11,average!A:J,10,FALSE)</f>
         <v>538198.80000000005</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f t="shared" si="1"/>
         <v>367.62136593392626</v>
       </c>
-      <c r="G11" s="15" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Pernambuco &amp; 197.853.378 &amp; 2,7 &amp; 538.199 &amp; 368 \\ \hline</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="39">
+        <f>B11/average!K12</f>
+        <v>5262057.9255319154</v>
+      </c>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -12829,20 +13037,25 @@
         <f t="shared" si="0"/>
         <v>2.4140454946596561</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f>VLOOKUP(A12,average!A:J,10,FALSE)</f>
         <v>497051.3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f t="shared" si="1"/>
         <v>358.87037012075012</v>
       </c>
-      <c r="G12" s="15" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Pará &amp; 178.376.984 &amp; 2,4 &amp; 497.051 &amp; 359 \\ \hline</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="39">
+        <f>B12/average!K13</f>
+        <v>4948043.9389736485</v>
+      </c>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12854,20 +13067,25 @@
         <f t="shared" si="0"/>
         <v>2.2137288809739601</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f>VLOOKUP(A13,average!A:J,10,FALSE)</f>
         <v>542370</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="1"/>
         <v>301.59361137231042</v>
       </c>
-      <c r="G13" s="15" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Ceará &amp; 163.575.327 &amp; 2,2 &amp; 542.370 &amp; 302 \\ \hline</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="39">
+        <f>B13/average!K14</f>
+        <v>4478448.3778234078</v>
+      </c>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -12879,20 +13097,25 @@
         <f t="shared" si="0"/>
         <v>1.9233929943859434</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f>VLOOKUP(A14,average!A:J,10,FALSE)</f>
         <v>265545.90000000002</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f t="shared" si="1"/>
         <v>535.20701317549992</v>
       </c>
-      <c r="G14" s="15" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Mato Grosso &amp; 142.122.028 &amp; 1,9 &amp; 265.546 &amp; 535 \\ \hline</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="39">
+        <f>B14/average!K15</f>
+        <v>3620943.388535032</v>
+      </c>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -12904,20 +13127,25 @@
         <f t="shared" si="0"/>
         <v>1.8587516583479167</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f>VLOOKUP(A15,average!A:J,10,FALSE)</f>
         <v>299144.40000000002</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <f t="shared" si="1"/>
         <v>459.12808329355317</v>
       </c>
-      <c r="G15" s="15" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Espírito Santo &amp; 137.345.595 &amp; 1,9 &amp; 299.144 &amp; 459 \\ \hline</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="39">
+        <f>B15/average!K16</f>
+        <v>3553572.9624838289</v>
+      </c>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -12929,20 +13157,25 @@
         <f t="shared" si="0"/>
         <v>1.464057018342211</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <f>VLOOKUP(A16,average!A:J,10,FALSE)</f>
         <v>232169</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <f t="shared" si="1"/>
         <v>465.95837945634429</v>
       </c>
-      <c r="G16" s="15" t="str">
+      <c r="G16" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Amazonas &amp; 108.181.091 &amp; 1,5 &amp; 232.169 &amp; 466 \\ \hline</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="39">
+        <f>B16/average!K17</f>
+        <v>3013400.8635097495</v>
+      </c>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -12954,20 +13187,25 @@
         <f t="shared" si="0"/>
         <v>1.4473047777878074</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f>VLOOKUP(A17,average!A:J,10,FALSE)</f>
         <v>197763.8</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f t="shared" si="1"/>
         <v>540.76249546175791</v>
       </c>
-      <c r="G17" s="15" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Mato Grosso do Sul &amp; 106.943.246 &amp; 1,4 &amp; 197.764 &amp; 541 \\ \hline</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="39">
+        <f>B17/average!K18</f>
+        <v>2865190.7836570661</v>
+      </c>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -12979,20 +13217,25 @@
         <f t="shared" si="0"/>
         <v>1.3173394543959229</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <f>VLOOKUP(A18,average!A:J,10,FALSE)</f>
         <v>317848.3</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <f t="shared" si="1"/>
         <v>306.24652703821289</v>
       </c>
-      <c r="G18" s="15" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Maranhão &amp; 97.339.938 &amp; 1,3 &amp; 317.848 &amp; 306 \\ \hline</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="39">
+        <f>B18/average!K19</f>
+        <v>2757505.3257790366</v>
+      </c>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13004,20 +13247,25 @@
         <f t="shared" si="0"/>
         <v>0.9654285463337976</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f>VLOOKUP(A19,average!A:J,10,FALSE)</f>
         <v>191595.3</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" si="1"/>
         <v>372.33053211639327</v>
       </c>
-      <c r="G19" s="15" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Rio Grande do Norte &amp; 71.336.780 &amp; 1,0 &amp; 191.595 &amp; 372 \\ \hline</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="39">
+        <f>B19/average!K20</f>
+        <v>1981577.2222222222</v>
+      </c>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -13029,20 +13277,25 @@
         <f t="shared" si="0"/>
         <v>0.92008213144414408</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <f>VLOOKUP(A20,average!A:J,10,FALSE)</f>
         <v>219648.09999999998</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" si="1"/>
         <v>309.52270472633273</v>
       </c>
-      <c r="G20" s="15" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Paraíba &amp; 67.986.074 &amp; 0,9 &amp; 219.648 &amp; 310 \\ \hline</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="39">
+        <f>B20/average!K21</f>
+        <v>1851220.5309734517</v>
+      </c>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -13054,20 +13307,25 @@
         <f t="shared" si="0"/>
         <v>0.79797920756852192</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <f>VLOOKUP(A21,average!A:J,10,FALSE)</f>
         <v>153310.79999999999</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f t="shared" si="1"/>
         <v>384.60257855284823</v>
       </c>
-      <c r="G21" s="15" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Alagoas &amp; 58.963.729 &amp; 0,8 &amp; 153.311 &amp; 385 \\ \hline</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="39">
+        <f>B21/average!K22</f>
+        <v>1591463.6707152494</v>
+      </c>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -13079,20 +13337,25 @@
         <f t="shared" si="0"/>
         <v>0.71430300802624824</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <f>VLOOKUP(A22,average!A:J,10,FALSE)</f>
         <v>167633.9</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <f t="shared" si="1"/>
         <v>314.85746618076655</v>
       </c>
-      <c r="G22" s="15" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Piauí &amp; 52.780.785 &amp; 0,7 &amp; 167.634 &amp; 315 \\ \hline</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="39">
+        <f>B22/average!K23</f>
+        <v>1632816.2412993037</v>
+      </c>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -13104,20 +13367,25 @@
         <f t="shared" si="0"/>
         <v>0.63730546934409471</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <f>VLOOKUP(A23,average!A:J,10,FALSE)</f>
         <v>121274.9</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <f t="shared" si="1"/>
         <v>388.30241047405525</v>
       </c>
-      <c r="G23" s="15" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Rondônia &amp; 47.091.336 &amp; 0,6 &amp; 121.275 &amp; 388 \\ \hline</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="39">
+        <f>B23/average!K24</f>
+        <v>1251596.9700996678</v>
+      </c>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -13129,20 +13397,25 @@
         <f t="shared" si="0"/>
         <v>0.60480025323681497</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <f>VLOOKUP(A24,average!A:J,10,FALSE)</f>
         <v>131389.6</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <f t="shared" si="1"/>
         <v>340.12953080000244</v>
       </c>
-      <c r="G24" s="15" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Sergipe &amp; 44.689.483 &amp; 0,6 &amp; 131.390 &amp; 340 \\ \hline</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="39">
+        <f>B24/average!K25</f>
+        <v>1265991.0198300281</v>
+      </c>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -13154,20 +13427,25 @@
         <f t="shared" si="0"/>
         <v>0.53261934319475457</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <f>VLOOKUP(A25,average!A:J,10,FALSE)</f>
         <v>96136.5</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <f t="shared" si="1"/>
         <v>409.37563776505283</v>
       </c>
-      <c r="G25" s="15" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Tocantins &amp; 39.355.941 &amp; 0,5 &amp; 96.137 &amp; 409 \\ \hline</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="39">
+        <f>B25/average!K26</f>
+        <v>1056535.3288590603</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -13179,20 +13457,25 @@
         <f t="shared" si="0"/>
         <v>0.23678915693875233</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <f>VLOOKUP(A26,average!A:J,10,FALSE)</f>
         <v>46468.299999999996</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <f t="shared" si="1"/>
         <v>376.52896705926412</v>
       </c>
-      <c r="G26" s="15" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Amapá &amp; 17.496.661 &amp; 0,2 &amp; 46.468 &amp; 377 \\ \hline</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="39">
+        <f>B26/average!K27</f>
+        <v>487033.01322199032</v>
+      </c>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -13204,20 +13487,25 @@
         <f t="shared" si="0"/>
         <v>0.21152713356956318</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <f>VLOOKUP(A27,average!A:J,10,FALSE)</f>
         <v>44426.6</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <f t="shared" si="1"/>
         <v>351.81663687970723</v>
       </c>
-      <c r="G27" s="15" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Acre &amp; 15.630.017 &amp; 0,2 &amp; 44.427 &amp; 352 \\ \hline</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="39">
+        <f>B27/average!K28</f>
+        <v>427049.64480874315</v>
+      </c>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -13229,20 +13517,25 @@
         <f t="shared" si="0"/>
         <v>0.19342229823777654</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <f>VLOOKUP(A28,average!A:J,10,FALSE)</f>
         <v>32173.1</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <f t="shared" si="1"/>
         <v>444.22909200543313</v>
       </c>
-      <c r="G28" s="15" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Roraima &amp; 14.292.227 &amp; 0,2 &amp; 32.173 &amp; 444 \\ \hline</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="39">
+        <f>B28/average!K29</f>
+        <v>381126.05333333334</v>
+      </c>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -13254,20 +13547,25 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <f>VLOOKUP(A29,average!A:J,10,FALSE)</f>
         <v>14300643.300000001</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <f t="shared" si="1"/>
         <v>516.6992033148606</v>
       </c>
-      <c r="G29" s="15" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Brasil &amp; 7.389.131.000 &amp; 100,0 &amp; 14.300.643 &amp; 517 \\ \hline</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="39">
+        <f>B29/average!K30</f>
+        <v>194835359.26170075</v>
+      </c>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -13279,20 +13577,29 @@
         <f t="shared" si="0"/>
         <v>68.219023319521611</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <f>VLOOKUP(A30,average!A:J,10,FALSE)</f>
         <v>10755342.100000001</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <f t="shared" si="1"/>
         <v>468.67807208103585</v>
       </c>
-      <c r="G30" s="15" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="2"/>
         <v>Rest of Brasil &amp; 5.040.793.000 &amp; 68,2 &amp; 10.755.342 &amp; 469 \\ \hline</v>
       </c>
+      <c r="H30" s="39">
+        <f>B30/average!K31</f>
+        <v>134080360.2170869</v>
+      </c>
+      <c r="I30" s="40">
+        <f>H30/$H$2</f>
+        <v>2.2253108536594652</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>